--- a/Sprint 1/Reunión Retrospectiva 1.xlsx
+++ b/Sprint 1/Reunión Retrospectiva 1.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\launote\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Info de Reunión" sheetId="2" r:id="rId2"/>
     <sheet name="Retrospectiva" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Proyecto</t>
   </si>
@@ -63,13 +58,28 @@
   </si>
   <si>
     <t>CookBook</t>
+  </si>
+  <si>
+    <t>Mejor división de tareas</t>
+  </si>
+  <si>
+    <t>Fallas en el diseño</t>
+  </si>
+  <si>
+    <t>Concreción de tareas</t>
+  </si>
+  <si>
+    <t>Estimación de esfuerzo</t>
+  </si>
+  <si>
+    <t>División del trabajo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -78,13 +88,13 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -96,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -129,42 +139,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -181,13 +161,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -196,14 +176,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -250,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -285,7 +257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -462,26 +434,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
@@ -490,7 +462,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -499,29 +471,30 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="12.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -530,7 +503,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="12.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -539,7 +512,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="12.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -548,7 +521,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="12.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -557,7 +530,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -566,30 +539,31 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -601,114 +575,125 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="12.75" customHeight="1">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="12.75" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="12.75" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="12.75" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="12.75" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="12.75" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="12.75" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="12.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="12.75" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="12.75" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="12.75" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="12.75" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="12.75" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="12.75" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="12.75" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="12.75" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>